--- a/Implementation/Python/experiment3EF1.xlsx
+++ b/Implementation/Python/experiment3EF1.xlsx
@@ -762,22 +762,22 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -795,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
@@ -839,31 +839,31 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -884,25 +884,25 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
@@ -928,49 +928,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
@@ -1020,55 +1020,55 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1115,49 +1115,49 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>265</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>249</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1207,52 +1207,52 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>348</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>302</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1302,52 +1302,52 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>284</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>402</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>414</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>351</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>289</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>151</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1394,55 +1394,55 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>449</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>483</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>475</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>315</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -1489,55 +1489,55 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>362</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>507</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>558</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>540</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>532</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>329</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1584,55 +1584,55 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>357</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>539</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>610</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>590</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>527</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>462</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>287</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1679,55 +1679,55 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>436</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>645</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>673</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>668</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>544</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>438</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1774,55 +1774,55 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>662</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>709</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>719</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>712</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>640</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>447</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>337</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
@@ -1866,61 +1866,61 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>656</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>765</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>785</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>736</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>681</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>356</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1961,61 +1961,61 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>495</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>687</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>804</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>802</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>792</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>676</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>609</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>371</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
         <v>0</v>
@@ -2056,58 +2056,58 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>531</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>784</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>819</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>841</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>787</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>747</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>610</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2151,58 +2151,58 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>529</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>793</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>870</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>858</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>838</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>761</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>357</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -2246,58 +2246,58 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>552</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>842</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>888</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>888</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>866</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>808</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>639</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>351</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
         <v>0</v>
@@ -2341,58 +2341,58 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>776</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>879</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>909</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>884</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>874</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>797</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>642</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>368</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>

--- a/Implementation/Python/experiment3EF1.xlsx
+++ b/Implementation/Python/experiment3EF1.xlsx
@@ -762,10 +762,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -839,41 +839,41 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
+        <v>8</v>
+      </c>
+      <c r="T5" t="n">
         <v>1</v>
       </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
@@ -928,59 +928,59 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="H6" t="n">
+        <v>82</v>
+      </c>
+      <c r="I6" t="n">
+        <v>80</v>
+      </c>
+      <c r="J6" t="n">
+        <v>84</v>
+      </c>
+      <c r="K6" t="n">
+        <v>13</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8</v>
+      </c>
+      <c r="M6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
       <c r="Y6" t="n">
         <v>0</v>
       </c>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -1020,55 +1020,55 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -1115,49 +1115,49 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="G8" t="n">
+        <v>245</v>
+      </c>
+      <c r="H8" t="n">
+        <v>257</v>
+      </c>
+      <c r="I8" t="n">
+        <v>225</v>
+      </c>
+      <c r="J8" t="n">
+        <v>136</v>
+      </c>
+      <c r="K8" t="n">
+        <v>15</v>
+      </c>
+      <c r="L8" t="n">
+        <v>15</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="n">
         <v>2</v>
       </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1207,58 +1207,58 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>298</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1302,58 +1302,58 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
+        <v>278</v>
+      </c>
+      <c r="F10" t="n">
+        <v>385</v>
+      </c>
+      <c r="G10" t="n">
+        <v>433</v>
+      </c>
+      <c r="H10" t="n">
+        <v>378</v>
+      </c>
+      <c r="I10" t="n">
+        <v>275</v>
+      </c>
+      <c r="J10" t="n">
+        <v>170</v>
+      </c>
+      <c r="K10" t="n">
+        <v>8</v>
+      </c>
+      <c r="L10" t="n">
+        <v>10</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4</v>
+      </c>
+      <c r="P10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>10</v>
+      </c>
+      <c r="R10" t="n">
+        <v>9</v>
+      </c>
+      <c r="S10" t="n">
+        <v>12</v>
+      </c>
+      <c r="T10" t="n">
+        <v>4</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1394,55 +1394,55 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>451</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>499</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>412</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>285</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1489,55 +1489,55 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>332</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>511</v>
       </c>
       <c r="F12" t="n">
+        <v>555</v>
+      </c>
+      <c r="G12" t="n">
+        <v>570</v>
+      </c>
+      <c r="H12" t="n">
+        <v>516</v>
+      </c>
+      <c r="I12" t="n">
+        <v>418</v>
+      </c>
+      <c r="J12" t="n">
+        <v>291</v>
+      </c>
+      <c r="K12" t="n">
+        <v>12</v>
+      </c>
+      <c r="L12" t="n">
         <v>2</v>
       </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1584,55 +1584,55 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>561</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>615</v>
       </c>
       <c r="G13" t="n">
+        <v>565</v>
+      </c>
+      <c r="H13" t="n">
+        <v>515</v>
+      </c>
+      <c r="I13" t="n">
+        <v>466</v>
+      </c>
+      <c r="J13" t="n">
+        <v>303</v>
+      </c>
+      <c r="K13" t="n">
+        <v>10</v>
+      </c>
+      <c r="L13" t="n">
         <v>1</v>
       </c>
-      <c r="H13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1679,55 +1679,55 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>406</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>628</v>
       </c>
       <c r="F14" t="n">
+        <v>663</v>
+      </c>
+      <c r="G14" t="n">
+        <v>660</v>
+      </c>
+      <c r="H14" t="n">
+        <v>567</v>
+      </c>
+      <c r="I14" t="n">
+        <v>447</v>
+      </c>
+      <c r="J14" t="n">
+        <v>333</v>
+      </c>
+      <c r="K14" t="n">
+        <v>7</v>
+      </c>
+      <c r="L14" t="n">
         <v>2</v>
       </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1774,55 +1774,55 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="E15" t="n">
+        <v>702</v>
+      </c>
+      <c r="F15" t="n">
+        <v>723</v>
+      </c>
+      <c r="G15" t="n">
+        <v>687</v>
+      </c>
+      <c r="H15" t="n">
+        <v>661</v>
+      </c>
+      <c r="I15" t="n">
+        <v>499</v>
+      </c>
+      <c r="J15" t="n">
+        <v>333</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1866,58 +1866,58 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>667</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>771</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>765</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>705</v>
       </c>
       <c r="H16" t="n">
+        <v>654</v>
+      </c>
+      <c r="I16" t="n">
+        <v>478</v>
+      </c>
+      <c r="J16" t="n">
+        <v>357</v>
+      </c>
+      <c r="K16" t="n">
+        <v>7</v>
+      </c>
+      <c r="L16" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1961,58 +1961,58 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
+        <v>470</v>
+      </c>
+      <c r="D17" t="n">
+        <v>661</v>
+      </c>
+      <c r="E17" t="n">
+        <v>801</v>
+      </c>
+      <c r="F17" t="n">
+        <v>797</v>
+      </c>
+      <c r="G17" t="n">
+        <v>777</v>
+      </c>
+      <c r="H17" t="n">
+        <v>669</v>
+      </c>
+      <c r="I17" t="n">
+        <v>588</v>
+      </c>
+      <c r="J17" t="n">
+        <v>337</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4</v>
+      </c>
+      <c r="L17" t="n">
         <v>1</v>
       </c>
-      <c r="D17" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -2056,58 +2056,58 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>510</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>814</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>816</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>838</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>798</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>758</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>625</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2151,58 +2151,58 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>558</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>811</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>883</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>854</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>831</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>793</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>628</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>356</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2246,58 +2246,58 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>538</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>820</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>895</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>898</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>852</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>778</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>656</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>377</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2341,76 +2341,76 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
+        <v>805</v>
+      </c>
+      <c r="D21" t="n">
+        <v>889</v>
+      </c>
+      <c r="E21" t="n">
+        <v>922</v>
+      </c>
+      <c r="F21" t="n">
+        <v>897</v>
+      </c>
+      <c r="G21" t="n">
+        <v>867</v>
+      </c>
+      <c r="H21" t="n">
+        <v>789</v>
+      </c>
+      <c r="I21" t="n">
+        <v>657</v>
+      </c>
+      <c r="J21" t="n">
+        <v>366</v>
+      </c>
+      <c r="K21" t="n">
+        <v>5</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>7</v>
+      </c>
+      <c r="N21" t="n">
+        <v>20</v>
+      </c>
+      <c r="O21" t="n">
+        <v>15</v>
+      </c>
+      <c r="P21" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>25</v>
+      </c>
+      <c r="R21" t="n">
+        <v>8</v>
+      </c>
+      <c r="S21" t="n">
+        <v>13</v>
+      </c>
+      <c r="T21" t="n">
         <v>2</v>
       </c>
-      <c r="D21" t="n">
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
         <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0</v>
       </c>
       <c r="AA21" t="n">
         <v>0</v>
